--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shrav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46871EA-E0A9-49BB-86A2-0FA60BF092A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D9AE33-16A9-4292-AC03-DDF9262F69DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{15A35F1A-D800-416E-9A57-EFCBD27ECF89}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>dbsadfb</t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>djdakda</t>
-  </si>
-  <si>
-    <t>nmbsdadhj</t>
-  </si>
-  <si>
-    <t>dsadm,mmd</t>
   </si>
 </sst>
 </file>
@@ -397,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F867246-24FA-4121-9889-9F0DD32A1B48}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,16 +414,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
